--- a/Players_rating_history.xlsx
+++ b/Players_rating_history.xlsx
@@ -157,7 +157,7 @@
     <t>8-11 16:45</t>
   </si>
   <si>
-    <t>10-11 22:13</t>
+    <t>10-11 22:21</t>
   </si>
 </sst>
 </file>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B70">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="C70" t="s">
         <v>47</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B71">
-        <v>1527</v>
+        <v>1538</v>
       </c>
       <c r="C71" t="s">
         <v>47</v>

--- a/Players_rating_history.xlsx
+++ b/Players_rating_history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>10-11 22:21</t>
+  </si>
+  <si>
+    <t>10-11 22:22</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1515,6 +1518,34 @@
         <v>27</v>
       </c>
     </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72">
+        <v>1527</v>
+      </c>
+      <c r="C72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73">
+        <v>1538</v>
+      </c>
+      <c r="C73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Players_rating_history.xlsx
+++ b/Players_rating_history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Thomas</t>
   </si>
   <si>
+    <t>Nikolai</t>
+  </si>
+  <si>
     <t>01-11 00:00</t>
   </si>
   <si>
@@ -157,10 +160,13 @@
     <t>8-11 16:45</t>
   </si>
   <si>
-    <t>10-11 22:21</t>
-  </si>
-  <si>
-    <t>10-11 22:22</t>
+    <t>11-11 8:46</t>
+  </si>
+  <si>
+    <t>11-11 8:47</t>
+  </si>
+  <si>
+    <t>11-11 8:52</t>
   </si>
 </sst>
 </file>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,7 +552,7 @@
         <v>1500</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -560,7 +566,7 @@
         <v>1500</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -574,7 +580,7 @@
         <v>1500</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -588,7 +594,7 @@
         <v>1500</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -602,7 +608,7 @@
         <v>1500</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -616,7 +622,7 @@
         <v>1500</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -630,7 +636,7 @@
         <v>1500</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -644,7 +650,7 @@
         <v>1500</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -658,7 +664,7 @@
         <v>1500</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -672,7 +678,7 @@
         <v>1500</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -686,7 +692,7 @@
         <v>1500</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -700,7 +706,7 @@
         <v>1500</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -714,7 +720,7 @@
         <v>1500</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -728,7 +734,7 @@
         <v>1500</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -742,7 +748,7 @@
         <v>1500</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -756,7 +762,7 @@
         <v>1500</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -764,24 +770,24 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>1521</v>
+        <v>1500</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>1484</v>
+        <v>1521</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -792,27 +798,27 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>1517</v>
+        <v>1484</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>1488</v>
+        <v>1517</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -820,27 +826,27 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>1501</v>
+        <v>1488</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>1488</v>
+        <v>1501</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -848,27 +854,27 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>1509</v>
+        <v>1484</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -879,24 +885,24 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>1529</v>
+        <v>1509</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>1473</v>
+        <v>1529</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -904,27 +910,27 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>1517</v>
+        <v>1473</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>1505</v>
+        <v>1517</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -932,7 +938,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>1505</v>
@@ -941,18 +947,18 @@
         <v>27</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>1522</v>
+        <v>1505</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31">
         <v>7</v>
@@ -960,27 +966,27 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>1484</v>
+        <v>1521</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33">
         <v>8</v>
@@ -988,27 +994,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B34">
-        <v>1537</v>
+        <v>1484</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>1489</v>
+        <v>1537</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>9</v>
@@ -1016,27 +1022,27 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>1507</v>
+        <v>1489</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D37">
         <v>10</v>
@@ -1044,27 +1050,27 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B38">
-        <v>1507</v>
+        <v>1519</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D39">
         <v>11</v>
@@ -1072,27 +1078,27 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>1547</v>
+        <v>1519</v>
       </c>
       <c r="C40" t="s">
         <v>32</v>
       </c>
       <c r="D40">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>1460</v>
+        <v>1547</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41">
         <v>12</v>
@@ -1100,27 +1106,27 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>1523</v>
+        <v>1460</v>
       </c>
       <c r="C42" t="s">
         <v>33</v>
       </c>
       <c r="D42">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43">
         <v>13</v>
@@ -1128,27 +1134,27 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B44">
-        <v>1501</v>
+        <v>1529</v>
       </c>
       <c r="C44" t="s">
         <v>34</v>
       </c>
       <c r="D44">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B45">
-        <v>1488</v>
+        <v>1501</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45">
         <v>14</v>
@@ -1156,27 +1162,27 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>1538</v>
+        <v>1488</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B47">
-        <v>1517</v>
+        <v>1538</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47">
         <v>15</v>
@@ -1184,27 +1190,27 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B48">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49">
-        <v>1507</v>
+        <v>1526</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D49">
         <v>16</v>
@@ -1212,27 +1218,27 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50">
-        <v>1514</v>
+        <v>1507</v>
       </c>
       <c r="C50" t="s">
         <v>37</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D51">
         <v>17</v>
@@ -1240,27 +1246,27 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B52">
-        <v>1553</v>
+        <v>1524</v>
       </c>
       <c r="C52" t="s">
         <v>38</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B53">
-        <v>1491</v>
+        <v>1553</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D53">
         <v>18</v>
@@ -1268,27 +1274,27 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B54">
-        <v>1502</v>
+        <v>1491</v>
       </c>
       <c r="C54" t="s">
         <v>39</v>
       </c>
       <c r="D54">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B55">
-        <v>1513</v>
+        <v>1502</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D55">
         <v>19</v>
@@ -1296,27 +1302,27 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B56">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="C56" t="s">
         <v>40</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>1501</v>
+        <v>1519</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D57">
         <v>20</v>
@@ -1324,27 +1330,27 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>1538</v>
+        <v>1501</v>
       </c>
       <c r="C58" t="s">
         <v>41</v>
       </c>
       <c r="D58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B59">
-        <v>1506</v>
+        <v>1538</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D59">
         <v>21</v>
@@ -1352,27 +1358,27 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B60">
-        <v>1517</v>
+        <v>1506</v>
       </c>
       <c r="C60" t="s">
         <v>42</v>
       </c>
       <c r="D60">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B61">
-        <v>1477</v>
+        <v>1517</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D61">
         <v>22</v>
@@ -1380,27 +1386,27 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B62">
-        <v>1507</v>
+        <v>1477</v>
       </c>
       <c r="C62" t="s">
         <v>43</v>
       </c>
       <c r="D62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B63">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D63">
         <v>23</v>
@@ -1411,24 +1417,24 @@
         <v>11</v>
       </c>
       <c r="B64">
-        <v>1538</v>
+        <v>1519</v>
       </c>
       <c r="C64" t="s">
         <v>44</v>
       </c>
       <c r="D64">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B65">
-        <v>1475</v>
+        <v>1538</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D65">
         <v>24</v>
@@ -1436,27 +1442,27 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B66">
-        <v>1527</v>
+        <v>1475</v>
       </c>
       <c r="C66" t="s">
         <v>45</v>
       </c>
       <c r="D66">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B67">
-        <v>1486</v>
+        <v>1527</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D67">
         <v>25</v>
@@ -1464,27 +1470,27 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68">
-        <v>1522</v>
+        <v>1486</v>
       </c>
       <c r="C68" t="s">
         <v>46</v>
       </c>
       <c r="D68">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B69">
-        <v>1475</v>
+        <v>1522</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D69">
         <v>26</v>
@@ -1492,27 +1498,27 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B70">
-        <v>1527</v>
+        <v>1475</v>
       </c>
       <c r="C70" t="s">
         <v>47</v>
       </c>
       <c r="D70">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B71">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D71">
         <v>27</v>
@@ -1520,30 +1526,184 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B72">
-        <v>1527</v>
+        <v>1538</v>
       </c>
       <c r="C72" t="s">
         <v>48</v>
       </c>
       <c r="D72">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B73">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="C73" t="s">
         <v>48</v>
       </c>
       <c r="D73">
         <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <v>1538</v>
+      </c>
+      <c r="C74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>1540</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <v>1462</v>
+      </c>
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77">
+        <v>1527</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78">
+        <v>1538</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79">
+        <v>1527</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80">
+        <v>1538</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>1460</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>1540</v>
+      </c>
+      <c r="C82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>1478</v>
+      </c>
+      <c r="C83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84">
+        <v>1487</v>
+      </c>
+      <c r="C84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Players_rating_history.xlsx
+++ b/Players_rating_history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -76,7 +76,10 @@
     <t>Thomas</t>
   </si>
   <si>
-    <t>Nikolai</t>
+    <t>Nikolaj</t>
+  </si>
+  <si>
+    <t>Heiko</t>
   </si>
   <si>
     <t>01-11 00:00</t>
@@ -167,6 +170,45 @@
   </si>
   <si>
     <t>11-11 8:52</t>
+  </si>
+  <si>
+    <t>11-11 10:46</t>
+  </si>
+  <si>
+    <t>11-11 12:27</t>
+  </si>
+  <si>
+    <t>11-11 13:14</t>
+  </si>
+  <si>
+    <t>11-11 14:50</t>
+  </si>
+  <si>
+    <t>14-11 10:45</t>
+  </si>
+  <si>
+    <t>14-11 13:55</t>
+  </si>
+  <si>
+    <t>14-11 15:15</t>
+  </si>
+  <si>
+    <t>14-11 16:00</t>
+  </si>
+  <si>
+    <t>15-11 10:29</t>
+  </si>
+  <si>
+    <t>15-11 10:45</t>
+  </si>
+  <si>
+    <t>15-11 12:02</t>
+  </si>
+  <si>
+    <t>15-11 12:28</t>
+  </si>
+  <si>
+    <t>15-11 13:16</t>
   </si>
 </sst>
 </file>
@@ -524,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,7 +594,7 @@
         <v>1500</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -566,7 +608,7 @@
         <v>1500</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -580,7 +622,7 @@
         <v>1500</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -594,7 +636,7 @@
         <v>1500</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -608,7 +650,7 @@
         <v>1500</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -622,7 +664,7 @@
         <v>1500</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -636,7 +678,7 @@
         <v>1500</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -650,7 +692,7 @@
         <v>1500</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -664,7 +706,7 @@
         <v>1500</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -678,7 +720,7 @@
         <v>1500</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -692,7 +734,7 @@
         <v>1500</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -706,7 +748,7 @@
         <v>1500</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -720,7 +762,7 @@
         <v>1500</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -734,7 +776,7 @@
         <v>1500</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -748,7 +790,7 @@
         <v>1500</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -762,7 +804,7 @@
         <v>1500</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -776,7 +818,7 @@
         <v>1500</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -784,24 +826,24 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>1521</v>
+        <v>1500</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>1484</v>
+        <v>1521</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -812,27 +854,27 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>1517</v>
+        <v>1484</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>1488</v>
+        <v>1517</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -840,27 +882,27 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>1501</v>
+        <v>1488</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>1488</v>
+        <v>1501</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -868,27 +910,27 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>1509</v>
+        <v>1484</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -899,24 +941,24 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>1529</v>
+        <v>1509</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>1473</v>
+        <v>1529</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -924,27 +966,27 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>1517</v>
+        <v>1473</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>1505</v>
+        <v>1517</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30">
         <v>6</v>
@@ -952,7 +994,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>1505</v>
@@ -961,18 +1003,18 @@
         <v>28</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>1522</v>
+        <v>1505</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32">
         <v>7</v>
@@ -980,27 +1022,27 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>1484</v>
+        <v>1521</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -1008,27 +1050,27 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B35">
-        <v>1537</v>
+        <v>1484</v>
       </c>
       <c r="C35" t="s">
         <v>30</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <v>1489</v>
+        <v>1537</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36">
         <v>9</v>
@@ -1036,27 +1078,27 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>1507</v>
+        <v>1489</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -1064,27 +1106,27 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B39">
-        <v>1507</v>
+        <v>1519</v>
       </c>
       <c r="C39" t="s">
         <v>32</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B40">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40">
         <v>11</v>
@@ -1092,27 +1134,27 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B41">
-        <v>1547</v>
+        <v>1519</v>
       </c>
       <c r="C41" t="s">
         <v>33</v>
       </c>
       <c r="D41">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>1460</v>
+        <v>1547</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42">
         <v>12</v>
@@ -1120,27 +1162,27 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>1523</v>
+        <v>1460</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B44">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44">
         <v>13</v>
@@ -1148,27 +1190,27 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B45">
-        <v>1501</v>
+        <v>1529</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B46">
-        <v>1488</v>
+        <v>1501</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46">
         <v>14</v>
@@ -1176,27 +1218,27 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B47">
-        <v>1538</v>
+        <v>1488</v>
       </c>
       <c r="C47" t="s">
         <v>36</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B48">
-        <v>1517</v>
+        <v>1538</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48">
         <v>15</v>
@@ -1204,27 +1246,27 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B49">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="C49" t="s">
         <v>37</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50">
-        <v>1507</v>
+        <v>1526</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D50">
         <v>16</v>
@@ -1232,27 +1274,27 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51">
-        <v>1514</v>
+        <v>1507</v>
       </c>
       <c r="C51" t="s">
         <v>38</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D52">
         <v>17</v>
@@ -1260,27 +1302,27 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B53">
-        <v>1553</v>
+        <v>1524</v>
       </c>
       <c r="C53" t="s">
         <v>39</v>
       </c>
       <c r="D53">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B54">
-        <v>1491</v>
+        <v>1553</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D54">
         <v>18</v>
@@ -1288,27 +1330,27 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B55">
-        <v>1502</v>
+        <v>1491</v>
       </c>
       <c r="C55" t="s">
         <v>40</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B56">
-        <v>1513</v>
+        <v>1502</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D56">
         <v>19</v>
@@ -1316,27 +1358,27 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B57">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="C57" t="s">
         <v>41</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B58">
-        <v>1501</v>
+        <v>1519</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D58">
         <v>20</v>
@@ -1344,27 +1386,27 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>1538</v>
+        <v>1501</v>
       </c>
       <c r="C59" t="s">
         <v>42</v>
       </c>
       <c r="D59">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B60">
-        <v>1506</v>
+        <v>1538</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D60">
         <v>21</v>
@@ -1372,27 +1414,27 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B61">
-        <v>1517</v>
+        <v>1506</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B62">
-        <v>1477</v>
+        <v>1517</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D62">
         <v>22</v>
@@ -1400,27 +1442,27 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B63">
-        <v>1507</v>
+        <v>1477</v>
       </c>
       <c r="C63" t="s">
         <v>44</v>
       </c>
       <c r="D63">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B64">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D64">
         <v>23</v>
@@ -1431,24 +1473,24 @@
         <v>11</v>
       </c>
       <c r="B65">
-        <v>1538</v>
+        <v>1519</v>
       </c>
       <c r="C65" t="s">
         <v>45</v>
       </c>
       <c r="D65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B66">
-        <v>1475</v>
+        <v>1538</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D66">
         <v>24</v>
@@ -1456,27 +1498,27 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B67">
-        <v>1527</v>
+        <v>1475</v>
       </c>
       <c r="C67" t="s">
         <v>46</v>
       </c>
       <c r="D67">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B68">
-        <v>1486</v>
+        <v>1527</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D68">
         <v>25</v>
@@ -1484,27 +1526,27 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>1522</v>
+        <v>1486</v>
       </c>
       <c r="C69" t="s">
         <v>47</v>
       </c>
       <c r="D69">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B70">
-        <v>1475</v>
+        <v>1522</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D70">
         <v>26</v>
@@ -1512,27 +1554,27 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B71">
-        <v>1527</v>
+        <v>1475</v>
       </c>
       <c r="C71" t="s">
         <v>48</v>
       </c>
       <c r="D71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B72">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D72">
         <v>27</v>
@@ -1540,27 +1582,27 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B73">
-        <v>1527</v>
+        <v>1538</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D73">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B74">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D74">
         <v>28</v>
@@ -1568,27 +1610,27 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B75">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C75" t="s">
         <v>49</v>
       </c>
       <c r="D75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B76">
-        <v>1462</v>
+        <v>1540</v>
       </c>
       <c r="C76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D76">
         <v>29</v>
@@ -1596,27 +1638,27 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B77">
-        <v>1527</v>
+        <v>1462</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B78">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="C78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D78">
         <v>30</v>
@@ -1624,27 +1666,27 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B79">
-        <v>1527</v>
+        <v>1538</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D79">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B80">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D80">
         <v>31</v>
@@ -1652,27 +1694,27 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B81">
-        <v>1460</v>
+        <v>1538</v>
       </c>
       <c r="C81" t="s">
         <v>50</v>
       </c>
       <c r="D81">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B82">
-        <v>1540</v>
+        <v>1460</v>
       </c>
       <c r="C82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D82">
         <v>32</v>
@@ -1680,30 +1722,408 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B83">
-        <v>1478</v>
+        <v>1540</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D83">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B84">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D84">
         <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85">
+        <v>1487</v>
+      </c>
+      <c r="C85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>1541</v>
+      </c>
+      <c r="C86" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87">
+        <v>1526</v>
+      </c>
+      <c r="C87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88">
+        <v>1545</v>
+      </c>
+      <c r="C88" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89">
+        <v>1449</v>
+      </c>
+      <c r="C89" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>1557</v>
+      </c>
+      <c r="C90" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>1529</v>
+      </c>
+      <c r="C91" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92">
+        <v>1562</v>
+      </c>
+      <c r="C92" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>1545</v>
+      </c>
+      <c r="C93" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>1561</v>
+      </c>
+      <c r="C94" t="s">
+        <v>56</v>
+      </c>
+      <c r="D94">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95">
+        <v>1527</v>
+      </c>
+      <c r="C95" t="s">
+        <v>56</v>
+      </c>
+      <c r="D95">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <v>1576</v>
+      </c>
+      <c r="C96" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97">
+        <v>1517</v>
+      </c>
+      <c r="C97" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98">
+        <v>1532</v>
+      </c>
+      <c r="C98" t="s">
+        <v>58</v>
+      </c>
+      <c r="D98">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99">
+        <v>1465</v>
+      </c>
+      <c r="C99" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>1589</v>
+      </c>
+      <c r="C100" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101">
+        <v>1470</v>
+      </c>
+      <c r="C101" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102">
+        <v>1499</v>
+      </c>
+      <c r="C102" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <v>1488</v>
+      </c>
+      <c r="C103" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104">
+        <v>1546</v>
+      </c>
+      <c r="C104" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105">
+        <v>1461</v>
+      </c>
+      <c r="C105" t="s">
+        <v>61</v>
+      </c>
+      <c r="D105">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106">
+        <v>1508</v>
+      </c>
+      <c r="C106" t="s">
+        <v>62</v>
+      </c>
+      <c r="D106">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107">
+        <v>1472</v>
+      </c>
+      <c r="C107" t="s">
+        <v>62</v>
+      </c>
+      <c r="D107">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108">
+        <v>1540</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109">
+        <v>1440</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110">
+        <v>1574</v>
+      </c>
+      <c r="C110" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111">
+        <v>1520</v>
+      </c>
+      <c r="C111" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Players_rating_history.xlsx
+++ b/Players_rating_history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -209,6 +209,15 @@
   </si>
   <si>
     <t>15-11 13:16</t>
+  </si>
+  <si>
+    <t>15-11 14:13</t>
+  </si>
+  <si>
+    <t>15-11 14:17</t>
+  </si>
+  <si>
+    <t>15-11 16:55</t>
   </si>
 </sst>
 </file>
@@ -566,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2126,6 +2135,90 @@
         <v>46</v>
       </c>
     </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112">
+        <v>1562</v>
+      </c>
+      <c r="C112" t="s">
+        <v>65</v>
+      </c>
+      <c r="D112">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113">
+        <v>1540</v>
+      </c>
+      <c r="C113" t="s">
+        <v>65</v>
+      </c>
+      <c r="D113">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>1588</v>
+      </c>
+      <c r="C114" t="s">
+        <v>66</v>
+      </c>
+      <c r="D114">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115">
+        <v>1499</v>
+      </c>
+      <c r="C115" t="s">
+        <v>66</v>
+      </c>
+      <c r="D115">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116">
+        <v>1518</v>
+      </c>
+      <c r="C116" t="s">
+        <v>67</v>
+      </c>
+      <c r="D116">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117">
+        <v>1463</v>
+      </c>
+      <c r="C117" t="s">
+        <v>67</v>
+      </c>
+      <c r="D117">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Players_rating_history.xlsx
+++ b/Players_rating_history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Heiko</t>
   </si>
   <si>
+    <t>Nanna</t>
+  </si>
+  <si>
     <t>01-11 00:00</t>
   </si>
   <si>
@@ -218,6 +221,30 @@
   </si>
   <si>
     <t>15-11 16:55</t>
+  </si>
+  <si>
+    <t>22-11 13:50</t>
+  </si>
+  <si>
+    <t>22-11 13:51</t>
+  </si>
+  <si>
+    <t>22-11 13:52</t>
+  </si>
+  <si>
+    <t>22-11 13:53</t>
+  </si>
+  <si>
+    <t>22-11 13:54</t>
+  </si>
+  <si>
+    <t>22-11 13:58</t>
+  </si>
+  <si>
+    <t>22-11 13:59</t>
+  </si>
+  <si>
+    <t>22-11 16:00</t>
   </si>
 </sst>
 </file>
@@ -575,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +630,7 @@
         <v>1500</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -617,7 +644,7 @@
         <v>1500</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -631,7 +658,7 @@
         <v>1500</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -645,7 +672,7 @@
         <v>1500</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -659,7 +686,7 @@
         <v>1500</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -673,7 +700,7 @@
         <v>1500</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -687,7 +714,7 @@
         <v>1500</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -701,7 +728,7 @@
         <v>1500</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -715,7 +742,7 @@
         <v>1500</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -729,7 +756,7 @@
         <v>1500</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -743,7 +770,7 @@
         <v>1500</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -757,7 +784,7 @@
         <v>1500</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -771,7 +798,7 @@
         <v>1500</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -785,7 +812,7 @@
         <v>1500</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -799,7 +826,7 @@
         <v>1500</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -813,7 +840,7 @@
         <v>1500</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -827,7 +854,7 @@
         <v>1500</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -841,7 +868,7 @@
         <v>1500</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -849,24 +876,24 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>1521</v>
+        <v>1500</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>1484</v>
+        <v>1521</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -877,27 +904,27 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>1517</v>
+        <v>1484</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>1488</v>
+        <v>1517</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -905,27 +932,27 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>1501</v>
+        <v>1488</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>1488</v>
+        <v>1501</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -933,27 +960,27 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>1509</v>
+        <v>1484</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -964,24 +991,24 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>1529</v>
+        <v>1509</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>1473</v>
+        <v>1529</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -989,27 +1016,27 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>1517</v>
+        <v>1473</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>1505</v>
+        <v>1517</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -1017,7 +1044,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B32">
         <v>1505</v>
@@ -1026,18 +1053,18 @@
         <v>29</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>1522</v>
+        <v>1505</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33">
         <v>7</v>
@@ -1045,27 +1072,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C34" t="s">
         <v>30</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>1484</v>
+        <v>1521</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -1073,27 +1100,27 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B36">
-        <v>1537</v>
+        <v>1484</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B37">
-        <v>1489</v>
+        <v>1537</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37">
         <v>9</v>
@@ -1101,27 +1128,27 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B38">
-        <v>1507</v>
+        <v>1489</v>
       </c>
       <c r="C38" t="s">
         <v>32</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39">
         <v>10</v>
@@ -1129,27 +1156,27 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>1507</v>
+        <v>1519</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41">
         <v>11</v>
@@ -1157,27 +1184,27 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B42">
-        <v>1547</v>
+        <v>1519</v>
       </c>
       <c r="C42" t="s">
         <v>34</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <v>1460</v>
+        <v>1547</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43">
         <v>12</v>
@@ -1185,27 +1212,27 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>1523</v>
+        <v>1460</v>
       </c>
       <c r="C44" t="s">
         <v>35</v>
       </c>
       <c r="D44">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B45">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45">
         <v>13</v>
@@ -1213,27 +1240,27 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>1501</v>
+        <v>1529</v>
       </c>
       <c r="C46" t="s">
         <v>36</v>
       </c>
       <c r="D46">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B47">
-        <v>1488</v>
+        <v>1501</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D47">
         <v>14</v>
@@ -1241,27 +1268,27 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B48">
-        <v>1538</v>
+        <v>1488</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>1517</v>
+        <v>1538</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D49">
         <v>15</v>
@@ -1269,27 +1296,27 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B50">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51">
-        <v>1507</v>
+        <v>1526</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D51">
         <v>16</v>
@@ -1297,27 +1324,27 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B52">
-        <v>1514</v>
+        <v>1507</v>
       </c>
       <c r="C52" t="s">
         <v>39</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D53">
         <v>17</v>
@@ -1325,27 +1352,27 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>1553</v>
+        <v>1524</v>
       </c>
       <c r="C54" t="s">
         <v>40</v>
       </c>
       <c r="D54">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>1491</v>
+        <v>1553</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D55">
         <v>18</v>
@@ -1353,27 +1380,27 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B56">
-        <v>1502</v>
+        <v>1491</v>
       </c>
       <c r="C56" t="s">
         <v>41</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>1513</v>
+        <v>1502</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D57">
         <v>19</v>
@@ -1381,27 +1408,27 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="C58" t="s">
         <v>42</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B59">
-        <v>1501</v>
+        <v>1519</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D59">
         <v>20</v>
@@ -1409,27 +1436,27 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B60">
-        <v>1538</v>
+        <v>1501</v>
       </c>
       <c r="C60" t="s">
         <v>43</v>
       </c>
       <c r="D60">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B61">
-        <v>1506</v>
+        <v>1538</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D61">
         <v>21</v>
@@ -1437,27 +1464,27 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B62">
-        <v>1517</v>
+        <v>1506</v>
       </c>
       <c r="C62" t="s">
         <v>44</v>
       </c>
       <c r="D62">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B63">
-        <v>1477</v>
+        <v>1517</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D63">
         <v>22</v>
@@ -1465,27 +1492,27 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B64">
-        <v>1507</v>
+        <v>1477</v>
       </c>
       <c r="C64" t="s">
         <v>45</v>
       </c>
       <c r="D64">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B65">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D65">
         <v>23</v>
@@ -1496,24 +1523,24 @@
         <v>11</v>
       </c>
       <c r="B66">
-        <v>1538</v>
+        <v>1519</v>
       </c>
       <c r="C66" t="s">
         <v>46</v>
       </c>
       <c r="D66">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B67">
-        <v>1475</v>
+        <v>1538</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D67">
         <v>24</v>
@@ -1521,27 +1548,27 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B68">
-        <v>1527</v>
+        <v>1475</v>
       </c>
       <c r="C68" t="s">
         <v>47</v>
       </c>
       <c r="D68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B69">
-        <v>1486</v>
+        <v>1527</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D69">
         <v>25</v>
@@ -1549,27 +1576,27 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70">
-        <v>1522</v>
+        <v>1486</v>
       </c>
       <c r="C70" t="s">
         <v>48</v>
       </c>
       <c r="D70">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B71">
-        <v>1475</v>
+        <v>1522</v>
       </c>
       <c r="C71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D71">
         <v>26</v>
@@ -1577,27 +1604,27 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B72">
-        <v>1527</v>
+        <v>1475</v>
       </c>
       <c r="C72" t="s">
         <v>49</v>
       </c>
       <c r="D72">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B73">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D73">
         <v>27</v>
@@ -1605,27 +1632,27 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B74">
-        <v>1527</v>
+        <v>1538</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D74">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B75">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D75">
         <v>28</v>
@@ -1633,27 +1660,27 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B76">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C76" t="s">
         <v>50</v>
       </c>
       <c r="D76">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B77">
-        <v>1462</v>
+        <v>1540</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D77">
         <v>29</v>
@@ -1661,27 +1688,27 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B78">
-        <v>1527</v>
+        <v>1462</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D78">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B79">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D79">
         <v>30</v>
@@ -1689,27 +1716,27 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B80">
-        <v>1527</v>
+        <v>1538</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B81">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D81">
         <v>31</v>
@@ -1717,27 +1744,27 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B82">
-        <v>1460</v>
+        <v>1538</v>
       </c>
       <c r="C82" t="s">
         <v>51</v>
       </c>
       <c r="D82">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B83">
-        <v>1540</v>
+        <v>1460</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D83">
         <v>32</v>
@@ -1745,27 +1772,27 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B84">
-        <v>1478</v>
+        <v>1540</v>
       </c>
       <c r="C84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D84">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B85">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="C85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D85">
         <v>33</v>
@@ -1773,27 +1800,27 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B86">
-        <v>1541</v>
+        <v>1487</v>
       </c>
       <c r="C86" t="s">
         <v>52</v>
       </c>
       <c r="D86">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B87">
-        <v>1526</v>
+        <v>1541</v>
       </c>
       <c r="C87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D87">
         <v>34</v>
@@ -1801,27 +1828,27 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B88">
-        <v>1545</v>
+        <v>1526</v>
       </c>
       <c r="C88" t="s">
         <v>53</v>
       </c>
       <c r="D88">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B89">
-        <v>1449</v>
+        <v>1545</v>
       </c>
       <c r="C89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D89">
         <v>35</v>
@@ -1829,27 +1856,27 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B90">
-        <v>1557</v>
+        <v>1449</v>
       </c>
       <c r="C90" t="s">
         <v>54</v>
       </c>
       <c r="D90">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B91">
-        <v>1529</v>
+        <v>1557</v>
       </c>
       <c r="C91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D91">
         <v>36</v>
@@ -1857,27 +1884,27 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B92">
-        <v>1562</v>
+        <v>1529</v>
       </c>
       <c r="C92" t="s">
         <v>55</v>
       </c>
       <c r="D92">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B93">
-        <v>1545</v>
+        <v>1562</v>
       </c>
       <c r="C93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D93">
         <v>37</v>
@@ -1888,24 +1915,24 @@
         <v>5</v>
       </c>
       <c r="B94">
-        <v>1561</v>
+        <v>1545</v>
       </c>
       <c r="C94" t="s">
         <v>56</v>
       </c>
       <c r="D94">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B95">
-        <v>1527</v>
+        <v>1561</v>
       </c>
       <c r="C95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D95">
         <v>38</v>
@@ -1913,27 +1940,27 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B96">
-        <v>1576</v>
+        <v>1527</v>
       </c>
       <c r="C96" t="s">
         <v>57</v>
       </c>
       <c r="D96">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B97">
-        <v>1517</v>
+        <v>1576</v>
       </c>
       <c r="C97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D97">
         <v>39</v>
@@ -1944,24 +1971,24 @@
         <v>10</v>
       </c>
       <c r="B98">
-        <v>1532</v>
+        <v>1517</v>
       </c>
       <c r="C98" t="s">
         <v>58</v>
       </c>
       <c r="D98">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B99">
-        <v>1465</v>
+        <v>1532</v>
       </c>
       <c r="C99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D99">
         <v>40</v>
@@ -1969,27 +1996,27 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B100">
-        <v>1589</v>
+        <v>1465</v>
       </c>
       <c r="C100" t="s">
         <v>59</v>
       </c>
       <c r="D100">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B101">
-        <v>1470</v>
+        <v>1589</v>
       </c>
       <c r="C101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D101">
         <v>41</v>
@@ -1997,27 +2024,27 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B102">
-        <v>1499</v>
+        <v>1470</v>
       </c>
       <c r="C102" t="s">
         <v>60</v>
       </c>
       <c r="D102">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B103">
-        <v>1488</v>
+        <v>1499</v>
       </c>
       <c r="C103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D103">
         <v>42</v>
@@ -2025,27 +2052,27 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B104">
-        <v>1546</v>
+        <v>1488</v>
       </c>
       <c r="C104" t="s">
         <v>61</v>
       </c>
       <c r="D104">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B105">
-        <v>1461</v>
+        <v>1546</v>
       </c>
       <c r="C105" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D105">
         <v>43</v>
@@ -2053,27 +2080,27 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B106">
-        <v>1508</v>
+        <v>1461</v>
       </c>
       <c r="C106" t="s">
         <v>62</v>
       </c>
       <c r="D106">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B107">
-        <v>1472</v>
+        <v>1508</v>
       </c>
       <c r="C107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D107">
         <v>44</v>
@@ -2081,27 +2108,27 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B108">
-        <v>1540</v>
+        <v>1472</v>
       </c>
       <c r="C108" t="s">
         <v>63</v>
       </c>
       <c r="D108">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B109">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="C109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D109">
         <v>45</v>
@@ -2109,27 +2136,27 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B110">
-        <v>1574</v>
+        <v>1440</v>
       </c>
       <c r="C110" t="s">
         <v>64</v>
       </c>
       <c r="D110">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B111">
-        <v>1520</v>
+        <v>1574</v>
       </c>
       <c r="C111" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D111">
         <v>46</v>
@@ -2137,27 +2164,27 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B112">
-        <v>1562</v>
+        <v>1520</v>
       </c>
       <c r="C112" t="s">
         <v>65</v>
       </c>
       <c r="D112">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B113">
-        <v>1540</v>
+        <v>1562</v>
       </c>
       <c r="C113" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D113">
         <v>47</v>
@@ -2165,27 +2192,27 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B114">
-        <v>1588</v>
+        <v>1540</v>
       </c>
       <c r="C114" t="s">
         <v>66</v>
       </c>
       <c r="D114">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B115">
-        <v>1499</v>
+        <v>1588</v>
       </c>
       <c r="C115" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D115">
         <v>48</v>
@@ -2196,27 +2223,573 @@
         <v>4</v>
       </c>
       <c r="B116">
-        <v>1518</v>
+        <v>1499</v>
       </c>
       <c r="C116" t="s">
         <v>67</v>
       </c>
       <c r="D116">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B117">
-        <v>1463</v>
+        <v>1518</v>
       </c>
       <c r="C117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D117">
         <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>1463</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119">
+        <v>1588</v>
+      </c>
+      <c r="C119" t="s">
+        <v>69</v>
+      </c>
+      <c r="D119">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120">
+        <v>1461</v>
+      </c>
+      <c r="C120" t="s">
+        <v>69</v>
+      </c>
+      <c r="D120">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121">
+        <v>1566</v>
+      </c>
+      <c r="C121" t="s">
+        <v>70</v>
+      </c>
+      <c r="D121">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122">
+        <v>1453</v>
+      </c>
+      <c r="C122" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>1604</v>
+      </c>
+      <c r="C123" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124">
+        <v>1488</v>
+      </c>
+      <c r="C124" t="s">
+        <v>70</v>
+      </c>
+      <c r="D124">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125">
+        <v>1582</v>
+      </c>
+      <c r="C125" t="s">
+        <v>70</v>
+      </c>
+      <c r="D125">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126">
+        <v>1461</v>
+      </c>
+      <c r="C126" t="s">
+        <v>70</v>
+      </c>
+      <c r="D126">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127">
+        <v>1604</v>
+      </c>
+      <c r="C127" t="s">
+        <v>70</v>
+      </c>
+      <c r="D127">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>1453</v>
+      </c>
+      <c r="C128" t="s">
+        <v>70</v>
+      </c>
+      <c r="D128">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>1478</v>
+      </c>
+      <c r="C129" t="s">
+        <v>71</v>
+      </c>
+      <c r="D129">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130">
+        <v>1526</v>
+      </c>
+      <c r="C130" t="s">
+        <v>71</v>
+      </c>
+      <c r="D130">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131">
+        <v>1604</v>
+      </c>
+      <c r="C131" t="s">
+        <v>71</v>
+      </c>
+      <c r="D131">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132">
+        <v>1587</v>
+      </c>
+      <c r="C132" t="s">
+        <v>71</v>
+      </c>
+      <c r="D132">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133">
+        <v>1587</v>
+      </c>
+      <c r="C133" t="s">
+        <v>71</v>
+      </c>
+      <c r="D133">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134">
+        <v>1478</v>
+      </c>
+      <c r="C134" t="s">
+        <v>71</v>
+      </c>
+      <c r="D134">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135">
+        <v>1533</v>
+      </c>
+      <c r="C135" t="s">
+        <v>72</v>
+      </c>
+      <c r="D135">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136">
+        <v>1573</v>
+      </c>
+      <c r="C136" t="s">
+        <v>72</v>
+      </c>
+      <c r="D136">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137">
+        <v>1555</v>
+      </c>
+      <c r="C137" t="s">
+        <v>72</v>
+      </c>
+      <c r="D137">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138">
+        <v>1556</v>
+      </c>
+      <c r="C138" t="s">
+        <v>72</v>
+      </c>
+      <c r="D138">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139">
+        <v>1440</v>
+      </c>
+      <c r="C139" t="s">
+        <v>72</v>
+      </c>
+      <c r="D139">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140">
+        <v>1540</v>
+      </c>
+      <c r="C140" t="s">
+        <v>72</v>
+      </c>
+      <c r="D140">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141">
+        <v>1540</v>
+      </c>
+      <c r="C141" t="s">
+        <v>72</v>
+      </c>
+      <c r="D141">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142">
+        <v>1440</v>
+      </c>
+      <c r="C142" t="s">
+        <v>72</v>
+      </c>
+      <c r="D142">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143">
+        <v>1440</v>
+      </c>
+      <c r="C143" t="s">
+        <v>72</v>
+      </c>
+      <c r="D143">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144">
+        <v>1540</v>
+      </c>
+      <c r="C144" t="s">
+        <v>72</v>
+      </c>
+      <c r="D144">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145">
+        <v>1543</v>
+      </c>
+      <c r="C145" t="s">
+        <v>73</v>
+      </c>
+      <c r="D145">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146">
+        <v>1543</v>
+      </c>
+      <c r="C146" t="s">
+        <v>73</v>
+      </c>
+      <c r="D146">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147">
+        <v>1543</v>
+      </c>
+      <c r="C147" t="s">
+        <v>73</v>
+      </c>
+      <c r="D147">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148">
+        <v>1556</v>
+      </c>
+      <c r="C148" t="s">
+        <v>73</v>
+      </c>
+      <c r="D148">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>22</v>
+      </c>
+      <c r="B149">
+        <v>1484</v>
+      </c>
+      <c r="C149" t="s">
+        <v>74</v>
+      </c>
+      <c r="D149">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150">
+        <v>1521</v>
+      </c>
+      <c r="C150" t="s">
+        <v>74</v>
+      </c>
+      <c r="D150">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151">
+        <v>1562</v>
+      </c>
+      <c r="C151" t="s">
+        <v>75</v>
+      </c>
+      <c r="D151">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152">
+        <v>1504</v>
+      </c>
+      <c r="C152" t="s">
+        <v>75</v>
+      </c>
+      <c r="D152">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153">
+        <v>1561</v>
+      </c>
+      <c r="C153" t="s">
+        <v>75</v>
+      </c>
+      <c r="D153">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154">
+        <v>1475</v>
+      </c>
+      <c r="C154" t="s">
+        <v>75</v>
+      </c>
+      <c r="D154">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155">
+        <v>1494</v>
+      </c>
+      <c r="C155" t="s">
+        <v>76</v>
+      </c>
+      <c r="D155">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156">
+        <v>1576</v>
+      </c>
+      <c r="C156" t="s">
+        <v>76</v>
+      </c>
+      <c r="D156">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
